--- a/public/sample/sample_store_stock_order.xlsx
+++ b/public/sample/sample_store_stock_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uhyun\bluewolf\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB3F3EE-D0AB-41F7-BCAD-1EB396444806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD13D6-6B91-40D7-9732-5F086BD9053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="4590" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23655" yWindow="2730" windowWidth="17775" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>수량(*)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>단가(*)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +98,14 @@
       </rPr>
       <t>항목</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량(예정)(*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량(확정)(*)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -604,69 +608,79 @@
     <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="10.77734375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="19.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="11">
         <v>131124</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9">
         <v>3</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
         <v>21.95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="11">
         <v>131100</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9">
         <v>6</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>12.5</v>
       </c>
     </row>

--- a/public/sample/sample_store_stock_order.xlsx
+++ b/public/sample/sample_store_stock_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uhyun\bluewolf\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD13D6-6B91-40D7-9732-5F086BD9053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ACF20C-1519-4249-BE22-FE1F94AD69BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23655" yWindow="2730" windowWidth="17775" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1710" windowWidth="28800" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,102 +22,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>단가(*)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>2023-01-01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드(*)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F224MJK07CTJM0L</t>
+  </si>
+  <si>
+    <t>F224MJK07CTJM0M</t>
+  </si>
+  <si>
+    <t>B/L No.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고일자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>환율</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관세총액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품코드(*)</t>
+    <t>운임비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품번호</t>
+    <t>alpen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량(예정)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품당 관세율(%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량(확정)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F225UAC48ACBK99</t>
-  </si>
-  <si>
-    <t>F225UKK19BAGA99</t>
-  </si>
-  <si>
-    <t>Black^One Size</t>
-  </si>
-  <si>
-    <t>Graphite^One Size</t>
-  </si>
-  <si>
-    <t>옵션</t>
+    <t>USD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>(*)</t>
+      <t xml:space="preserve">* 샘플형식에 맞춰 작성해주세요.
+* (*)는 필수입력항목입니다.
+* 수량/단가/상품당관세율 미입력 시 0으로 입력됩니다.
+* 통화 : </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <rFont val="돋움"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>는</t>
+      <t>KRW / USD / EUR / JPY / CNY / HKD</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항목</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량(예정)(*)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량(확정)(*)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급처 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -136,25 +136,50 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Montserrat"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,18 +188,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -183,18 +202,218 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -206,57 +425,96 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,94 +855,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="19.44140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C13" s="7">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
-        <v>131124</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C14" s="7">
+        <v>20</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
-        <v>21.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>131100</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>12.5</v>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>8.49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C7:F7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.26" right="0.2" top="0.8" bottom="0.3" header="0.5" footer="0.21"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/sample/sample_store_stock_order.xlsx
+++ b/public/sample/sample_store_stock_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uhyun\bluewolf\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ACF20C-1519-4249-BE22-FE1F94AD69BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8A7F7D-D99E-4591-8953-8A86D8372A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1710" windowWidth="28800" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13935" yWindow="3405" windowWidth="28800" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="\$#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -151,32 +152,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="돋움"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="돋움"/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -425,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,85 +436,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,163 +894,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="8" customWidth="1"/>
+    <col min="3" max="4" width="10.77734375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="12" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="19.44140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+    <row r="2" spans="1:8" customFormat="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <v>100</v>
       </c>
-      <c r="F13">
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="6" t="s">
+      <c r="F13" s="17">
+        <v>0.13789999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>20</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="10">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="11">
         <v>100</v>
       </c>
-      <c r="F14">
-        <v>8.49</v>
+      <c r="F14" s="17">
+        <v>8.4900000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1054,7 +1097,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/sample/sample_store_stock_order.xlsx
+++ b/public/sample/sample_store_stock_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uhyun\bluewolf\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8A7F7D-D99E-4591-8953-8A86D8372A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD96A1-B096-4907-A6FA-70E55742EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="3405" windowWidth="28800" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="3630" windowWidth="28800" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,10 @@
   <si>
     <t>USD</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급처 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -103,10 +107,39 @@
       </rPr>
       <t>KRW / USD / EUR / JPY / CNY / HKD</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급처 코드</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* 통화를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KRW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 입력 시, 환율/관세총액/운임비/상품당관세율 항목이 반영되지 않습니다.</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +151,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -179,6 +212,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -496,6 +536,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -524,24 +582,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -910,9 +950,9 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>16</v>
+    <row r="1" spans="1:8" s="29" customFormat="1" ht="87" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1">
@@ -934,45 +974,45 @@
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="21" t="s">
@@ -987,19 +1027,19 @@
       <c r="B9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B11" s="8"/>

--- a/public/sample/sample_store_stock_order.xlsx
+++ b/public/sample/sample_store_stock_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uhyun\bluewolf\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD96A1-B096-4907-A6FA-70E55742EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FB24CE-7EA1-4675-8756-9EADF147D302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="3630" windowWidth="28800" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7770" yWindow="3795" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>F224MJK07CTJM0M</t>
-  </si>
-  <si>
-    <t>B/L No.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>입고일자</t>
@@ -140,6 +136,10 @@
       </rPr>
       <t>로 입력 시, 환율/관세총액/운임비/상품당관세율 항목이 반영되지 않습니다.</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인보이스 번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -612,9 +612,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -652,9 +652,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,26 +687,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,26 +722,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -935,7 +901,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -952,7 +918,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="29" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1">
@@ -974,10 +940,10 @@
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -985,7 +951,7 @@
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="20" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="34"/>
@@ -994,7 +960,7 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>0</v>
@@ -1005,10 +971,10 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -1016,7 +982,7 @@
     </row>
     <row r="8" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
@@ -1025,7 +991,7 @@
     </row>
     <row r="9" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
@@ -1034,7 +1000,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B10" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
@@ -1053,16 +1019,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" customFormat="1" ht="15" customHeight="1">
